--- a/planPrice.xlsx
+++ b/planPrice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBE0B8D-322F-B642-A00D-2880E4CE550C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408EC5E-E9C8-4948-87C0-EB03871548BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,12 +1033,6 @@
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1075,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,6 +1100,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2184,7 +2184,7 @@
   <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2203,70 +2203,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="91"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="92"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="89">
+      <c r="B6" s="88">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="73"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="73"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2407,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="90"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="74"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
@@ -2491,58 +2491,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2550,12 +2550,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="84"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="73">
+      <c r="B17" s="71">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="73"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="73"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="73"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="74"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
@@ -2820,6 +2820,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="G15:G16"/>
@@ -2832,14 +2840,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planPrice.xlsx
+++ b/planPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Git/Projects/html/ppap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408EC5E-E9C8-4948-87C0-EB03871548BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF05354-4213-6B41-8100-D9F564D3AB50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>요금제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,43 +244,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>테스트기기1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤럭시노트20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>갤럭시s20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가-sk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가-kt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가-lg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가-알뜰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시s10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시s21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm1231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm5312</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm5293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시-sk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선약-sk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시-kt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선약-kt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시-lg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선약-lg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시-알뜰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선약-알뜰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시지원금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +509,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -1018,9 +1064,6 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,13 +1073,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1100,9 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1121,9 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,6 +1146,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,380 +1504,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>49</v>
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="64">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54">
+        <v>47</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="54">
         <v>55000</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="64">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54">
+      <c r="C2" s="54"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="54">
         <v>75000</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="52"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="64">
-        <v>2</v>
-      </c>
-      <c r="B4" s="54">
+      <c r="C3" s="54"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="54">
         <v>89000</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="64">
-        <v>3</v>
-      </c>
-      <c r="B5" s="54">
+      <c r="C4" s="54"/>
+      <c r="D4" s="52"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="54">
         <v>125000</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="64">
-        <v>4</v>
-      </c>
-      <c r="B6" s="54">
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="54">
         <v>45000</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="64">
-        <v>5</v>
-      </c>
-      <c r="B7" s="54">
+      <c r="C6" s="54"/>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="54">
         <v>33000</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="64">
-        <v>6</v>
-      </c>
-      <c r="B8" s="54">
+      <c r="C7" s="54"/>
+      <c r="D7" s="52"/>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="54">
         <v>43000</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="64">
-        <v>7</v>
-      </c>
-      <c r="B9" s="54">
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="54">
         <v>50000</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="64">
-        <v>8</v>
-      </c>
-      <c r="B10" s="54">
+      <c r="C9" s="54"/>
+      <c r="D9" s="52"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="54">
         <v>69000</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="64">
-        <v>9</v>
-      </c>
-      <c r="B11" s="54">
+      <c r="C10" s="54"/>
+      <c r="D10" s="52"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="54">
         <v>79000</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="52"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="64">
-        <v>10</v>
-      </c>
-      <c r="B12" s="54">
+      <c r="C11" s="54"/>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="54">
         <v>100000</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="64">
-        <v>11</v>
-      </c>
-      <c r="B13" s="54">
+      <c r="C12" s="54"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="54">
         <v>33000</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="64">
-        <v>12</v>
-      </c>
-      <c r="B14" s="54">
+      <c r="C13" s="54"/>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="54">
         <v>50000</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="52"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="64">
-        <v>13</v>
-      </c>
-      <c r="B15" s="54">
+      <c r="C14" s="54"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="54">
         <v>69000</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="64">
-        <v>14</v>
-      </c>
-      <c r="B16" s="54">
+      <c r="C15" s="54"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="54">
         <v>31000</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="52"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="64">
-        <v>15</v>
-      </c>
-      <c r="B17" s="54">
+      <c r="C16" s="54"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="54">
         <v>41000</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="64">
-        <v>16</v>
-      </c>
-      <c r="B18" s="54">
+      <c r="C17" s="54"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="54">
         <v>47000</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="52"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="64">
-        <v>17</v>
-      </c>
-      <c r="B19" s="54">
+      <c r="C18" s="54"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="54">
         <v>33000</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="52"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="64">
-        <v>18</v>
-      </c>
-      <c r="B20" s="54">
+      <c r="C19" s="54"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="54">
         <v>43000</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="52"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="64">
-        <v>19</v>
-      </c>
-      <c r="B21" s="54">
+      <c r="C20" s="54"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="54">
         <v>50000</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="64">
-        <v>20</v>
-      </c>
-      <c r="B22" s="54">
+      <c r="C21" s="54"/>
+      <c r="D21" s="52"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="54">
         <v>69000</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="B22" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="64">
-        <v>21</v>
-      </c>
-      <c r="B23" s="54">
+      <c r="C22" s="54"/>
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="54">
         <v>79000</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="B24" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="52"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1">
-      <c r="B25" s="55"/>
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="55"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="B26" s="55"/>
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="55"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="52"/>
-    </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1">
-      <c r="B27" s="55"/>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="55"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="52"/>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1">
-      <c r="B28" s="55"/>
+      <c r="D27" s="52"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="55"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="52"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1">
-      <c r="B29" s="55"/>
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="A29" s="55"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1">
-      <c r="B30" s="55"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="52"/>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1">
-      <c r="B31" s="55"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1">
+      <c r="A31" s="55"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1">
-      <c r="B32" s="55"/>
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1">
+      <c r="A32" s="55"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="2:5" ht="18" customHeight="1">
-      <c r="B33" s="55"/>
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="55"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="52"/>
-    </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1"/>
+      <c r="D33" s="52"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,274 +1817,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C577D-ED8A-104A-A242-A2230A40E4CD}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="56" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="57" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13" style="56" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="57" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="17.1640625" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="59" t="str">
+        <f>plan!$B2</f>
+        <v>5GX_슬림</v>
+      </c>
+      <c r="M1" s="59" t="str">
+        <f>plan!$B3</f>
+        <v>5GX_스탠다드</v>
+      </c>
+      <c r="N1" s="59" t="str">
+        <f>plan!$B4</f>
+        <v>5GX_프라임</v>
+      </c>
+      <c r="O1" s="60" t="str">
+        <f>plan!$B5</f>
+        <v>5GX_플래티넘</v>
+      </c>
+      <c r="P1" s="60" t="str">
+        <f>plan!$B6</f>
+        <v>5GX_청소년요금제_0틴</v>
+      </c>
+      <c r="Q1" s="60" t="str">
+        <f>plan!$B7</f>
+        <v>LTE_플랜_세이브</v>
+      </c>
+      <c r="R1" s="60" t="str">
+        <f>plan!$B8</f>
+        <v>LTE_플랜_안심2.5G</v>
+      </c>
+      <c r="S1" s="60" t="str">
+        <f>plan!$B9</f>
+        <v>LTE_플랜_안심4G</v>
+      </c>
+      <c r="T1" s="60" t="str">
+        <f>plan!$B10</f>
+        <v>LTE_플랜_에센스</v>
+      </c>
+      <c r="U1" s="60" t="str">
+        <f>plan!$B11</f>
+        <v>LTE_플랜_스페셜</v>
+      </c>
+      <c r="V1" s="60" t="str">
+        <f>plan!$B12</f>
+        <v>LTE_플랜_맥스</v>
+      </c>
+      <c r="W1" s="60" t="str">
+        <f>plan!$B13</f>
+        <v>LTE_0플랜_스몰</v>
+      </c>
+      <c r="X1" s="60" t="str">
+        <f>plan!$B14</f>
+        <v>LTE_0플랜_미디엄</v>
+      </c>
+      <c r="Y1" s="60" t="str">
+        <f>plan!$B15</f>
+        <v>LTE_0플랜_라지</v>
+      </c>
+      <c r="Z1" s="59" t="str">
+        <f>plan!$B16</f>
+        <v>LTE_팅_세이브</v>
+      </c>
+      <c r="AA1" s="61" t="str">
+        <f>plan!$B17</f>
+        <v>LTE_팅_3.0G</v>
+      </c>
+      <c r="AB1" s="61" t="str">
+        <f>plan!$B18</f>
+        <v>LTE_팅_5.0G</v>
+      </c>
+      <c r="AC1" s="61" t="str">
+        <f>plan!$B19</f>
+        <v>LTE어르신_세이브</v>
+      </c>
+      <c r="AD1" s="61" t="str">
+        <f>plan!$B20</f>
+        <v>LTE어르신_안심2.8G</v>
+      </c>
+      <c r="AE1" s="61" t="str">
+        <f>plan!$B21</f>
+        <v>LTE어르신_안심4.5G</v>
+      </c>
+      <c r="AF1" s="61" t="str">
+        <f>plan!$B22</f>
+        <v>LTE어르신_에센스</v>
+      </c>
+      <c r="AG1" s="61" t="str">
+        <f>plan!$B22</f>
+        <v>LTE어르신_에센스</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+    </row>
+    <row r="3" spans="1:33" s="58" customFormat="1">
+      <c r="A3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="59">
-        <v>0</v>
-      </c>
-      <c r="H1" s="59">
-        <v>1</v>
-      </c>
-      <c r="I1" s="59">
-        <v>2</v>
-      </c>
-      <c r="J1" s="59">
-        <v>3</v>
-      </c>
-      <c r="K1" s="59">
-        <v>4</v>
-      </c>
-      <c r="L1" s="59">
-        <v>5</v>
-      </c>
-      <c r="M1" s="59">
-        <v>6</v>
-      </c>
-      <c r="N1" s="59">
-        <v>7</v>
-      </c>
-      <c r="O1" s="59">
-        <v>8</v>
-      </c>
-      <c r="P1" s="59">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="59">
-        <v>10</v>
-      </c>
-      <c r="R1" s="59">
-        <v>11</v>
-      </c>
-      <c r="S1" s="59">
-        <v>12</v>
-      </c>
-      <c r="T1" s="59">
-        <v>13</v>
-      </c>
-      <c r="U1" s="59">
-        <v>14</v>
-      </c>
-      <c r="V1" s="59">
-        <v>15</v>
-      </c>
-      <c r="W1" s="59">
-        <v>16</v>
-      </c>
-      <c r="X1" s="59">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="59">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="59">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="59">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="59">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="67"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="59" t="str">
-        <f>plan!$C2</f>
-        <v>5GX_슬림</v>
-      </c>
-      <c r="H2" s="59" t="str">
-        <f>plan!$C3</f>
-        <v>5GX_스탠다드</v>
-      </c>
-      <c r="I2" s="59" t="str">
-        <f>plan!$C4</f>
-        <v>5GX_프라임</v>
-      </c>
-      <c r="J2" s="60" t="str">
-        <f>plan!$C5</f>
-        <v>5GX_플래티넘</v>
-      </c>
-      <c r="K2" s="60" t="str">
-        <f>plan!$C6</f>
-        <v>5GX_청소년요금제_0틴</v>
-      </c>
-      <c r="L2" s="60" t="str">
-        <f>plan!$C7</f>
-        <v>LTE_플랜_세이브</v>
-      </c>
-      <c r="M2" s="60" t="str">
-        <f>plan!$C8</f>
-        <v>LTE_플랜_안심2.5G</v>
-      </c>
-      <c r="N2" s="60" t="str">
-        <f>plan!$C9</f>
-        <v>LTE_플랜_안심4G</v>
-      </c>
-      <c r="O2" s="60" t="str">
-        <f>plan!$C10</f>
-        <v>LTE_플랜_에센스</v>
-      </c>
-      <c r="P2" s="60" t="str">
-        <f>plan!$C11</f>
-        <v>LTE_플랜_스페셜</v>
-      </c>
-      <c r="Q2" s="60" t="str">
-        <f>plan!$C12</f>
-        <v>LTE_플랜_맥스</v>
-      </c>
-      <c r="R2" s="60" t="str">
-        <f>plan!$C13</f>
-        <v>LTE_0플랜_스몰</v>
-      </c>
-      <c r="S2" s="60" t="str">
-        <f>plan!$C14</f>
-        <v>LTE_0플랜_미디엄</v>
-      </c>
-      <c r="T2" s="60" t="str">
-        <f>plan!$C15</f>
-        <v>LTE_0플랜_라지</v>
-      </c>
-      <c r="U2" s="59" t="str">
-        <f>plan!$C16</f>
-        <v>LTE_팅_세이브</v>
-      </c>
-      <c r="V2" s="61" t="str">
-        <f>plan!$C17</f>
-        <v>LTE_팅_3.0G</v>
-      </c>
-      <c r="W2" s="61" t="str">
-        <f>plan!$C18</f>
-        <v>LTE_팅_5.0G</v>
-      </c>
-      <c r="X2" s="61" t="str">
-        <f>plan!$C19</f>
-        <v>LTE어르신_세이브</v>
-      </c>
-      <c r="Y2" s="61" t="str">
-        <f>plan!$C20</f>
-        <v>LTE어르신_안심2.8G</v>
-      </c>
-      <c r="Z2" s="61" t="str">
-        <f>plan!$C21</f>
-        <v>LTE어르신_안심4.5G</v>
-      </c>
-      <c r="AA2" s="61" t="str">
-        <f>plan!$C22</f>
-        <v>LTE어르신_에센스</v>
-      </c>
-      <c r="AB2" s="61" t="str">
-        <f>plan!$C22</f>
-        <v>LTE어르신_에센스</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="58" customFormat="1">
-      <c r="A3" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="56">
-        <v>1199000</v>
-      </c>
       <c r="C3" s="56">
-        <v>0</v>
+        <v>1199111</v>
       </c>
       <c r="D3" s="56">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E3" s="56">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F3" s="56">
-        <v>0</v>
-      </c>
-      <c r="G3" s="57">
+        <v>111</v>
+      </c>
+      <c r="G3" s="56">
+        <v>222</v>
+      </c>
+      <c r="H3" s="56">
+        <v>111</v>
+      </c>
+      <c r="I3" s="56">
+        <v>222</v>
+      </c>
+      <c r="J3" s="56">
+        <v>111</v>
+      </c>
+      <c r="K3" s="56">
+        <v>222</v>
+      </c>
+      <c r="L3" s="57">
         <v>345000</v>
       </c>
-      <c r="H3" s="57">
+      <c r="M3" s="57">
         <v>444000</v>
       </c>
-      <c r="I3" s="57">
+      <c r="N3" s="57">
         <v>480000</v>
       </c>
-      <c r="J3" s="57">
+      <c r="O3" s="57">
         <v>480000</v>
       </c>
-      <c r="K3" s="57">
+      <c r="P3" s="57">
         <v>404000</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
       <c r="U3" s="57"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="56">
+        <v>53</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="56">
         <v>1000000</v>
-      </c>
-      <c r="C4" s="56">
-        <v>0</v>
       </c>
       <c r="D4" s="56">
         <v>0</v>
@@ -2119,31 +2097,46 @@
       <c r="F4" s="56">
         <v>0</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="56">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56">
+        <v>0</v>
+      </c>
+      <c r="J4" s="56">
+        <v>0</v>
+      </c>
+      <c r="K4" s="56">
+        <v>0</v>
+      </c>
+      <c r="L4" s="57">
         <v>4242</v>
       </c>
-      <c r="H4" s="57">
+      <c r="M4" s="57">
         <v>424</v>
       </c>
-      <c r="I4" s="57">
+      <c r="N4" s="57">
         <v>24244</v>
       </c>
-      <c r="J4" s="57">
+      <c r="O4" s="57">
         <v>5</v>
       </c>
-      <c r="K4" s="57">
+      <c r="P4" s="57">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:33">
       <c r="A5" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="56">
+        <v>54</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="56">
         <v>1300000</v>
-      </c>
-      <c r="C5" s="56">
-        <v>0</v>
       </c>
       <c r="D5" s="56">
         <v>0</v>
@@ -2154,25 +2147,44 @@
       <c r="F5" s="56">
         <v>0</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="56">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
+        <v>0</v>
+      </c>
+      <c r="J5" s="56">
+        <v>0</v>
+      </c>
+      <c r="K5" s="56">
+        <v>0</v>
+      </c>
+      <c r="L5" s="57">
         <v>42442</v>
       </c>
-      <c r="H5" s="57">
+      <c r="M5" s="57">
         <v>424</v>
       </c>
-      <c r="I5" s="57">
+      <c r="N5" s="57">
         <v>424</v>
       </c>
-      <c r="J5" s="57">
+      <c r="O5" s="57">
         <v>42</v>
       </c>
-      <c r="K5" s="57">
+      <c r="P5" s="57">
         <v>613477374</v>
       </c>
     </row>
+    <row r="14" spans="1:33">
+      <c r="I14" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F2"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="L2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,70 +2215,70 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="1"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="23">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="23">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="90"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="36">
         <v>1199000</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1">
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2296,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24" thickBot="1">
-      <c r="B6" s="88">
+      <c r="B6" s="87">
         <f>K4</f>
         <v>1199000</v>
       </c>
@@ -2327,7 +2339,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24" thickBot="1">
-      <c r="B7" s="71"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2379,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24" thickBot="1">
-      <c r="B8" s="71"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2407,7 +2419,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="24" thickBot="1">
-      <c r="B9" s="89"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2459,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24" thickBot="1">
-      <c r="B10" s="72"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="44" t="s">
         <v>22</v>
       </c>
@@ -2491,58 +2503,58 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="23">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="40"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12" ht="23">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="38">
         <f>K4</f>
         <v>1199000</v>
@@ -2550,12 +2562,12 @@
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12" ht="23">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="10" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2585,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="23">
-      <c r="B17" s="71">
+      <c r="B17" s="68">
         <f>K15</f>
         <v>1199000</v>
       </c>
@@ -2617,7 +2629,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="23">
-      <c r="B18" s="71"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2670,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="23">
-      <c r="B19" s="71"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2711,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="24" thickBot="1">
-      <c r="B20" s="71"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="21" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2752,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="24" thickBot="1">
-      <c r="B21" s="72"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
@@ -2820,8 +2832,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2840,6 +2850,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B6:B10"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
